--- a/data/specialthanks-dun.xlsx
+++ b/data/specialthanks-dun.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\lifeRestart\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7235E3-D1A5-45FA-AA31-027A49917818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E39317E-3900-4B39-B052-57233713484D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8450" yWindow="6470" windowWidth="17880" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="6100" windowWidth="17640" windowHeight="6780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="&gt;specialthanks&lt;arr&gt;" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="307">
   <si>
     <t>group</t>
   </si>
@@ -304,6 +304,987 @@
   </si>
   <si>
     <t>圆果团子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神之领域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西域刀客</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>书签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轩尘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正牌孟岩様</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果真能重来的话……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王杰文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kevin Lu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵发红</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑衣人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的粉丝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有林啊.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>red</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渡鸦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>犽犽超级喜欢赫尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绕圈跑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>董研策</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>口爆青年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导师田斌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zicade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>墨繁星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桑杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一只程序猿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>俗人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>来自S8B515宿舍的支持</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>😉</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DreamRide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人不如意十八九</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉心糖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙铭钰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉吉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贾贾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中年危机陈西西</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宇宙房地产大亨弗利萨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的薛爸爸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妖怪蜀黍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘沈钧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饭饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加利斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑稽拌饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敖鹏柽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张逸尘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红茶坊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小灰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七海Nana7mi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#ff70cb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>松松小笨蛋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NeroCloud</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挺好玩的小游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>策划大大的大跌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tiny cherry petal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>啊哈哈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">般若鬼面 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#921AFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>璟年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干死黄旭东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五胖是真的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狗贼给箱子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尹东洋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红阳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>barusamikosu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小保安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tony</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戒（ ）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下半鸭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xiaosaye</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAKAS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icefrog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南怪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁一斤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊公子nice哥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徙南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粟粟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王哲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HPENG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>残梦空恨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试名字的长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏吉野</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻想丶当时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>琦琦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执笔诉情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈声</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶魔在右丷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏苏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pink</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈哈和大叔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攀大大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电饭锅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梦鼠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nicc宇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>断开的胖达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小葛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flamingo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聊表心意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叁叁得玖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不知名的小秘书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉水云端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>臣又贝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大猫先生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奔波霸丶霸波奔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>独一の宠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错过了就是一辈子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>惶恐的方糖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙大侠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄庆喜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kululu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一坪海岸线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旧光影里的乔乔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伊夫洋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗马皇帝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>享年18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多多完善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>summall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咸鱼菌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帅哥恒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>想当策划大大的大跌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乱命割杀打!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天辰星雪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凯尘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一只卑微想活下去的孩子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>余栀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>球帝-一杆清场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐振恒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ys</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苟且</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MegaCoder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咕噜录喜欢玩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#212832</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音无彩名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最爱奶瓶的憨憨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小企鹅鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>百化</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>🤤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 我的百化</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>🤤</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>estel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半途废物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六一是个好日子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宁缺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跑路的贤者之石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二浪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zmz西内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>探知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉然今天吃什么</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一下又一夏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凤尔文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梦里千寻狐狸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Venividivici</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石头门天下第一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哇啦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>metarm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战地流星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩冈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一洛liquor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明明杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锅包肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上杉绘梨衣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闇夜無白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#B15BFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DRT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊猫菌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#622D85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄非红</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiadada2333</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨二傻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最平淡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我敲腻害ii</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西楚棋待诏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个不想活的太烂的人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿斯巴甜_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐身。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unseptbium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶魔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fitgor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车八戒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELEAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>慕容佳佳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五彩鸿鹄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#00ff00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈先森</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wsq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ike</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chensc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>于星橦娇妻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凡鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王小瓶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红烧二花肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>废土战狼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞鸟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Caesar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张凯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宅男阿海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程蝶衣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八千</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b 安贝慧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呼噜呼噜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解无明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>千鹤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zeqing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Si_X:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社畜一枚，玩着你们的游戏睡着了，我做了一个梦，这个梦真的很美，谢谢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不喜欢甜的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晓危</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛虫哥哥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>听风忆雪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搞死我了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#4169E1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老郑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太帅很苦恼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张鑫宇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zpdma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cknrsz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沈航计算机@526室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>llidds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不言而言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花生、饮料、矿泉水！前边的腿让一让！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盘锦大汉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我是不白嫖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alkahest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>想喝胡辣汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>**</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7akum1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗夜星辰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迷路的狗剩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鎂光光同志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jaclhui</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -311,7 +1292,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -341,6 +1322,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -651,10 +1638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:D278"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I46" sqref="I46"/>
+    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
+      <selection activeCell="D275" sqref="D275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1182,12 +2169,1814 @@
         <v>71</v>
       </c>
     </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>2</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>2</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>2</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>2</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>1</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>2</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>2</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>2</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>2</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>2</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>2</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>2</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>2</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>2</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>2</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>2</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>2</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>2</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>2</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>2</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>2</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>2</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>1</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>1</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>2</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>2</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <v>2</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>2</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>2</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>2</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>2</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>2</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <v>2</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>2</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <v>2</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>2</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>2</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <v>2</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
+        <v>2</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
+        <v>2</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
+        <v>2</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" s="1">
+        <v>2</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" s="1">
+        <v>1</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
+        <v>2</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
+        <v>2</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
+        <v>2</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" s="1">
+        <v>2</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
+        <v>2</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <v>2</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <v>2</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <v>2</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <v>2</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <v>2</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <v>2</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <v>2</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <v>2</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <v>2</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
+        <v>2</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
+        <v>2</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
+        <v>2</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
+        <v>2</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" s="1">
+        <v>2</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" s="1">
+        <v>2</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" s="1">
+        <v>2</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" s="1">
+        <v>2</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" s="1">
+        <v>2</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" s="1">
+        <v>2</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" s="1">
+        <v>2</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" s="1">
+        <v>2</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" s="1">
+        <v>2</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" s="1">
+        <v>2</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132" s="1">
+        <v>2</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133" s="1">
+        <v>2</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134" s="1">
+        <v>2</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135" s="1">
+        <v>2</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136" s="1">
+        <v>2</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137" s="1">
+        <v>2</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138" s="1">
+        <v>2</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139" s="1">
+        <v>2</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140" s="1">
+        <v>2</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141" s="1">
+        <v>2</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142" s="1">
+        <v>2</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143" s="1">
+        <v>2</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144" s="1">
+        <v>2</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" s="1">
+        <v>2</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" s="1">
+        <v>2</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" s="1">
+        <v>2</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" s="1">
+        <v>1</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" s="1">
+        <v>2</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150" s="1">
+        <v>2</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151" s="1">
+        <v>2</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152" s="1">
+        <v>2</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153" s="1">
+        <v>2</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" s="1">
+        <v>2</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155" s="1">
+        <v>2</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156" s="1">
+        <v>2</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157" s="1">
+        <v>2</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158" s="1">
+        <v>2</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159" s="1">
+        <v>2</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160" s="1">
+        <v>2</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161" s="1">
+        <v>2</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162" s="1">
+        <v>2</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163" s="1">
+        <v>2</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A164" s="1">
+        <v>2</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A165" s="1">
+        <v>2</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A166" s="1">
+        <v>1</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A167" s="1">
+        <v>2</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A168" s="1">
+        <v>2</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A169" s="1">
+        <v>2</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A170" s="1">
+        <v>2</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A171" s="1">
+        <v>2</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A172" s="1">
+        <v>2</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A173" s="1">
+        <v>2</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A174" s="1">
+        <v>2</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A175" s="1">
+        <v>2</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A176" s="1">
+        <v>2</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A177" s="1">
+        <v>2</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A178" s="1">
+        <v>2</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A179" s="1">
+        <v>2</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A180" s="1">
+        <v>2</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A181" s="1">
+        <v>2</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A182" s="1">
+        <v>2</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A183" s="1">
+        <v>2</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A184" s="1">
+        <v>2</v>
+      </c>
+      <c r="B184" s="1">
+        <v>55</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A185" s="1">
+        <v>2</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A186" s="1">
+        <v>2</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A187" s="1">
+        <v>2</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A188" s="1">
+        <v>2</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A189" s="1">
+        <v>2</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A190" s="1">
+        <v>2</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A191" s="1">
+        <v>2</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A192" s="1">
+        <v>2</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" s="1">
+        <v>2</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194" s="1">
+        <v>2</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" s="1">
+        <v>2</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" s="1">
+        <v>2</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" s="1">
+        <v>2</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" s="1">
+        <v>2</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199" s="1">
+        <v>2</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200" s="1">
+        <v>2</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" s="1">
+        <v>2</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202" s="1">
+        <v>2</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203" s="1">
+        <v>2</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204" s="1">
+        <v>2</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205" s="1">
+        <v>2</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206" s="1">
+        <v>2</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207" s="1">
+        <v>2</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208" s="1">
+        <v>2</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A209" s="1">
+        <v>2</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A210" s="1">
+        <v>2</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A211" s="1">
+        <v>2</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A212" s="1">
+        <v>2</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A213" s="1">
+        <v>2</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A214" s="1">
+        <v>2</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A215" s="1">
+        <v>2</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A216" s="1">
+        <v>2</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A217" s="1">
+        <v>2</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A218" s="1">
+        <v>2</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A219" s="1">
+        <v>2</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A220" s="1">
+        <v>2</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A221" s="1">
+        <v>2</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A222" s="1">
+        <v>2</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A223" s="1">
+        <v>2</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A224" s="1">
+        <v>2</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A225" s="1">
+        <v>2</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A226" s="1">
+        <v>2</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A227" s="1">
+        <v>2</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A228" s="1">
+        <v>2</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A229" s="1">
+        <v>2</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A230" s="1">
+        <v>2</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A231" s="1">
+        <v>2</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A232" s="1">
+        <v>2</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A233" s="1">
+        <v>2</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A234" s="1">
+        <v>2</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A235" s="1">
+        <v>2</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A236" s="1">
+        <v>2</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A237" s="1">
+        <v>2</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A238" s="1">
+        <v>2</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A239" s="1">
+        <v>2</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A240" s="1">
+        <v>2</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A241" s="1">
+        <v>2</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A242" s="1">
+        <v>2</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A243" s="1">
+        <v>2</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A244" s="1">
+        <v>2</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A245" s="1">
+        <v>2</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A246" s="1">
+        <v>2</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A247" s="1">
+        <v>2</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A248" s="1">
+        <v>2</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A249" s="1">
+        <v>2</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A250" s="1">
+        <v>2</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A251" s="1">
+        <v>2</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A252" s="1">
+        <v>2</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A253" s="1">
+        <v>1</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A254" s="1">
+        <v>2</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A255" s="1">
+        <v>2</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A256" s="1">
+        <v>2</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A257" s="1">
+        <v>2</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A258" s="1">
+        <v>1</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D258" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A259" s="1">
+        <v>2</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A260" s="1">
+        <v>2</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A261" s="1">
+        <v>2</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A262" s="1">
+        <v>2</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A263" s="1">
+        <v>2</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A264" s="1">
+        <v>2</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A265" s="1">
+        <v>2</v>
+      </c>
+      <c r="B265" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A266" s="1">
+        <v>2</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A267" s="2">
+        <v>1</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A268" s="1">
+        <v>2</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A269" s="1">
+        <v>2</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A270" s="1">
+        <v>2</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A271" s="1">
+        <v>2</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A272" s="1">
+        <v>2</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A273" s="1">
+        <v>2</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A274" s="1">
+        <v>2</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A275" s="1">
+        <v>2</v>
+      </c>
+      <c r="B275" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A276" s="1">
+        <v>2</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A277" s="1">
+        <v>2</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A278" s="1">
+        <v>2</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B34" r:id="rId1" xr:uid="{EFEB6B61-6435-4392-99B1-CAF9DD6A437F}"/>
+    <hyperlink ref="B265" r:id="rId2" xr:uid="{CB2CA6D1-AD70-468E-B7D4-1B07E6E4967B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
 </worksheet>
 </file>